--- a/data/output/excelReport.xlsx
+++ b/data/output/excelReport.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13153" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13242" uniqueCount="976">
   <si>
     <t>TEST EXECUTION REPORT</t>
   </si>
@@ -2962,6 +2962,9 @@
   </si>
   <si>
     <t>KnownDifference</t>
+  </si>
+  <si>
+    <t>EndUserAccepted</t>
   </si>
   <si>
     <t>Match Count_Final</t>
@@ -22578,7 +22581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
@@ -22601,6 +22604,7 @@
     <col min="14" max="14" width="19.53125" customWidth="true"/>
     <col min="15" max="15" width="19.53125" customWidth="true"/>
     <col min="16" max="16" width="19.53125" customWidth="true"/>
+    <col min="17" max="17" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -22666,6 +22670,9 @@
       <c r="P2" t="s" s="308">
         <v>971</v>
       </c>
+      <c r="Q2" t="s" s="308">
+        <v>972</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -22704,16 +22711,19 @@
       <c r="L3" t="s">
         <v>226</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" t="n">
         <v>23.0</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22754,16 +22764,19 @@
       <c r="L4" t="s">
         <v>226</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.0</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>23.0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22804,16 +22817,19 @@
       <c r="L5" t="s">
         <v>226</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" t="n">
         <v>23.0</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22854,16 +22870,19 @@
       <c r="L6" t="s">
         <v>226</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
+      <c r="M6" t="s">
+        <v>226</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22904,16 +22923,19 @@
       <c r="L7" t="s">
         <v>226</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
+      <c r="M7" t="s">
+        <v>696</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22954,16 +22976,19 @@
       <c r="L8" t="s">
         <v>226</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="s">
+        <v>226</v>
+      </c>
+      <c r="N8" t="n">
         <v>23.0</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23001,21 +23026,24 @@
         <v>#REF!</v>
       </c>
       <c r="K9" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L9" t="s">
         <v>226</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N9" t="n">
         <v>13.0</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>10.0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23058,16 +23086,19 @@
       <c r="L10" t="s">
         <v>226</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="s">
+        <v>226</v>
+      </c>
+      <c r="N10" t="n">
         <v>23.0</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.0</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>27</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23110,16 +23141,19 @@
       <c r="L11" t="s">
         <v>226</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="s">
+        <v>696</v>
+      </c>
+      <c r="N11" t="n">
         <v>23.0</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.0</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23162,16 +23196,19 @@
       <c r="L12" t="s">
         <v>226</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" t="n">
         <v>23.0</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.0</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23209,21 +23246,24 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L13" t="s">
         <v>226</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" t="n">
         <v>23.0</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>27</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23264,16 +23304,19 @@
       <c r="L14" t="s">
         <v>226</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="s">
+        <v>696</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.0</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>23.0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>27</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23314,16 +23357,19 @@
       <c r="L15" t="s">
         <v>226</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.0</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>23.0</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>27</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23359,21 +23405,24 @@
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L16" t="s">
         <v>226</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
+      <c r="M16" t="s">
+        <v>226</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="s">
         <v>27</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23416,16 +23465,19 @@
       <c r="L17" t="s">
         <v>226</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" t="n">
         <v>23.0</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>0.0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>27</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23466,18 +23518,21 @@
         <v>226</v>
       </c>
       <c r="L18" t="s">
-        <v>974</v>
-      </c>
-      <c r="M18" t="n">
+        <v>975</v>
+      </c>
+      <c r="M18" t="s">
+        <v>226</v>
+      </c>
+      <c r="N18" t="n">
         <v>23.0</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>0.0</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>27</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23520,16 +23575,19 @@
       <c r="L19" t="s">
         <v>226</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="s">
+        <v>226</v>
+      </c>
+      <c r="N19" t="n">
         <v>23.0</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>0.0</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>27</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23570,16 +23628,19 @@
       <c r="L20" t="s">
         <v>226</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="s">
+        <v>226</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.0</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>23.0</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>27</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23620,16 +23681,19 @@
       <c r="L21" t="s">
         <v>226</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" t="s">
+        <v>226</v>
+      </c>
+      <c r="N21" t="n">
         <v>23.0</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>0.0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>27</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23670,16 +23734,19 @@
       <c r="L22" t="s">
         <v>226</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="s">
+        <v>226</v>
+      </c>
+      <c r="N22" t="n">
         <v>23.0</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>0.0</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>27</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23720,16 +23787,19 @@
       <c r="L23" t="s">
         <v>226</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" t="s">
+        <v>226</v>
+      </c>
+      <c r="N23" t="n">
         <v>23.0</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>0.0</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>27</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23770,16 +23840,19 @@
       <c r="L24" t="s">
         <v>226</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.0</v>
+      <c r="M24" t="s">
+        <v>226</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="s">
         <v>27</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23820,16 +23893,19 @@
       <c r="L25" t="s">
         <v>226</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" t="s">
+        <v>226</v>
+      </c>
+      <c r="N25" t="n">
         <v>23.0</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>0.0</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>27</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23870,16 +23946,19 @@
       <c r="L26" t="s">
         <v>226</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" t="s">
+        <v>226</v>
+      </c>
+      <c r="N26" t="n">
         <v>23.0</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.0</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>27</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23920,16 +23999,19 @@
       <c r="L27" t="s">
         <v>226</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" t="s">
+        <v>226</v>
+      </c>
+      <c r="N27" t="n">
         <v>23.0</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>27</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23970,16 +24052,19 @@
       <c r="L28" t="s">
         <v>226</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N28" t="n">
         <v>23.0</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>0.0</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>27</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24020,16 +24105,19 @@
       <c r="L29" t="s">
         <v>226</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" t="s">
+        <v>226</v>
+      </c>
+      <c r="N29" t="n">
         <v>23.0</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>0.0</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>27</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24070,16 +24158,19 @@
       <c r="L30" t="s">
         <v>226</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" t="s">
+        <v>226</v>
+      </c>
+      <c r="N30" t="n">
         <v>23.0</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>0.0</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>27</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24120,16 +24211,19 @@
       <c r="L31" t="s">
         <v>226</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" t="n">
         <v>23.0</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>0.0</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>27</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24170,16 +24264,19 @@
       <c r="L32" t="s">
         <v>226</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" t="s">
+        <v>226</v>
+      </c>
+      <c r="N32" t="n">
         <v>23.0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>0.0</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>27</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24220,16 +24317,19 @@
       <c r="L33" t="s">
         <v>226</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" t="n">
         <v>23.0</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>0.0</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>27</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24270,16 +24370,19 @@
       <c r="L34" t="s">
         <v>226</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" t="n">
         <v>23.0</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.0</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>27</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24320,16 +24423,19 @@
       <c r="L35" t="s">
         <v>226</v>
       </c>
-      <c r="M35" t="n">
-        <v>0.0</v>
+      <c r="M35" t="s">
+        <v>226</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="s">
         <v>27</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24370,16 +24476,19 @@
       <c r="L36" t="s">
         <v>226</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" t="s">
+        <v>226</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.0</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>23.0</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>27</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24420,16 +24529,19 @@
       <c r="L37" t="s">
         <v>226</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.0</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>23.0</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>27</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24470,16 +24582,19 @@
       <c r="L38" t="s">
         <v>226</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" t="s">
+        <v>226</v>
+      </c>
+      <c r="N38" t="n">
         <v>23.0</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>0.0</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>27</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24520,16 +24635,19 @@
       <c r="L39" t="s">
         <v>226</v>
       </c>
-      <c r="M39" t="n">
-        <v>0.0</v>
+      <c r="M39" t="s">
+        <v>226</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="s">
         <v>27</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24570,16 +24688,19 @@
       <c r="L40" t="s">
         <v>226</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" t="s">
+        <v>226</v>
+      </c>
+      <c r="N40" t="n">
         <v>23.0</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>0.0</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>27</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24620,16 +24741,19 @@
       <c r="L41" t="s">
         <v>226</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" t="n">
         <v>23.0</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>0.0</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>27</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24670,16 +24794,19 @@
       <c r="L42" t="s">
         <v>226</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" t="n">
         <v>23.0</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>0.0</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>27</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24720,16 +24847,19 @@
       <c r="L43" t="s">
         <v>226</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" t="s">
+        <v>226</v>
+      </c>
+      <c r="N43" t="n">
         <v>23.0</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.0</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>27</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24770,16 +24900,19 @@
       <c r="L44" t="s">
         <v>226</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" t="n">
         <v>23.0</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.0</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>27</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24820,16 +24953,19 @@
       <c r="L45" t="s">
         <v>226</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="s">
+        <v>226</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.0</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>23.0</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>27</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24870,16 +25006,19 @@
       <c r="L46" t="s">
         <v>226</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" t="s">
+        <v>226</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.0</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>23.0</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>27</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24920,16 +25059,19 @@
       <c r="L47" t="s">
         <v>226</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" t="s">
+        <v>226</v>
+      </c>
+      <c r="N47" t="n">
         <v>23.0</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>0.0</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>27</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -24970,16 +25112,19 @@
       <c r="L48" t="s">
         <v>226</v>
       </c>
-      <c r="M48" t="n">
-        <v>0.0</v>
+      <c r="M48" t="s">
+        <v>226</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P48" t="s">
         <v>27</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25020,16 +25165,19 @@
       <c r="L49" t="s">
         <v>226</v>
       </c>
-      <c r="M49" t="n">
-        <v>0.0</v>
+      <c r="M49" t="s">
+        <v>226</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P49" t="s">
         <v>27</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25070,16 +25218,19 @@
       <c r="L50" t="s">
         <v>226</v>
       </c>
-      <c r="M50" t="n">
-        <v>0.0</v>
+      <c r="M50" t="s">
+        <v>226</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P50" t="s">
         <v>27</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25120,16 +25271,19 @@
       <c r="L51" t="s">
         <v>226</v>
       </c>
-      <c r="M51" t="n">
-        <v>0.0</v>
+      <c r="M51" t="s">
+        <v>226</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P51" t="s">
         <v>27</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25170,16 +25324,19 @@
       <c r="L52" t="s">
         <v>226</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" t="s">
+        <v>226</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.0</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>23.0</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>27</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25220,16 +25377,19 @@
       <c r="L53" t="s">
         <v>226</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" t="s">
+        <v>226</v>
+      </c>
+      <c r="N53" t="n">
         <v>0.0</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>23.0</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>27</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25270,16 +25430,19 @@
       <c r="L54" t="s">
         <v>226</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" t="s">
+        <v>226</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.0</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>23.0</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>27</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25320,16 +25483,19 @@
       <c r="L55" t="s">
         <v>226</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" t="s">
+        <v>226</v>
+      </c>
+      <c r="N55" t="n">
         <v>0.0</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>23.0</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>27</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25370,16 +25536,19 @@
       <c r="L56" t="s">
         <v>226</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" t="s">
+        <v>226</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.0</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>23.0</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>27</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25420,16 +25589,19 @@
       <c r="L57" t="s">
         <v>226</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.0</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>23.0</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>27</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25470,16 +25642,19 @@
       <c r="L58" t="s">
         <v>226</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" t="s">
+        <v>226</v>
+      </c>
+      <c r="N58" t="n">
         <v>23.0</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>0.0</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>27</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25520,16 +25695,19 @@
       <c r="L59" t="s">
         <v>226</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" t="s">
+        <v>226</v>
+      </c>
+      <c r="N59" t="n">
         <v>23.0</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>0.0</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>27</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25570,16 +25748,19 @@
       <c r="L60" t="s">
         <v>226</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" t="s">
+        <v>226</v>
+      </c>
+      <c r="N60" t="n">
         <v>23.0</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>0.0</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>27</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25620,16 +25801,19 @@
       <c r="L61" t="s">
         <v>226</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" t="s">
+        <v>226</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.0</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>23.0</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>27</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25670,16 +25854,19 @@
       <c r="L62" t="s">
         <v>226</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" t="s">
+        <v>226</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.0</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>23.0</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>27</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25720,16 +25907,19 @@
       <c r="L63" t="s">
         <v>226</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" t="s">
+        <v>226</v>
+      </c>
+      <c r="N63" t="n">
         <v>0.0</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>23.0</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>27</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25770,16 +25960,19 @@
       <c r="L64" t="s">
         <v>226</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64" t="s">
+        <v>226</v>
+      </c>
+      <c r="N64" t="n">
         <v>0.0</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>23.0</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>27</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25820,16 +26013,19 @@
       <c r="L65" t="s">
         <v>226</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65" t="s">
+        <v>226</v>
+      </c>
+      <c r="N65" t="n">
         <v>23.0</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>0.0</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>27</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25870,16 +26066,19 @@
       <c r="L66" t="s">
         <v>226</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" t="s">
+        <v>226</v>
+      </c>
+      <c r="N66" t="n">
         <v>0.0</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>23.0</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>27</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25920,16 +26119,19 @@
       <c r="L67" t="s">
         <v>226</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" t="s">
+        <v>226</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.0</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>23.0</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>27</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25970,16 +26172,19 @@
       <c r="L68" t="s">
         <v>226</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="s">
+        <v>226</v>
+      </c>
+      <c r="N68" t="n">
         <v>23.0</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>0.0</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>27</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26020,16 +26225,19 @@
       <c r="L69" t="s">
         <v>226</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="s">
+        <v>226</v>
+      </c>
+      <c r="N69" t="n">
         <v>23.0</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>0.0</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>27</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26070,16 +26278,19 @@
       <c r="L70" t="s">
         <v>226</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" t="s">
+        <v>226</v>
+      </c>
+      <c r="N70" t="n">
         <v>0.0</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>23.0</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>27</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26122,16 +26333,19 @@
       <c r="L71" t="s">
         <v>226</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" t="s">
+        <v>226</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.0</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>23.0</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>27</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26174,16 +26388,19 @@
       <c r="L72" t="s">
         <v>226</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" t="s">
+        <v>226</v>
+      </c>
+      <c r="N72" t="n">
         <v>0.0</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>23.0</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>27</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26226,16 +26443,19 @@
       <c r="L73" t="s">
         <v>226</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" t="s">
+        <v>226</v>
+      </c>
+      <c r="N73" t="n">
         <v>0.0</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>23.0</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>27</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26278,16 +26498,19 @@
       <c r="L74" t="s">
         <v>226</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M74" t="s">
+        <v>226</v>
+      </c>
+      <c r="N74" t="n">
         <v>0.0</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>23.0</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>27</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26330,16 +26553,19 @@
       <c r="L75" t="s">
         <v>226</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75" t="s">
+        <v>226</v>
+      </c>
+      <c r="N75" t="n">
         <v>0.0</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>23.0</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>27</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26382,16 +26608,19 @@
       <c r="L76" t="s">
         <v>226</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" t="s">
+        <v>226</v>
+      </c>
+      <c r="N76" t="n">
         <v>0.0</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>23.0</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>27</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26432,16 +26661,19 @@
       <c r="L77" t="s">
         <v>226</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M77" t="s">
+        <v>226</v>
+      </c>
+      <c r="N77" t="n">
         <v>23.0</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>0.0</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>27</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26482,16 +26714,19 @@
       <c r="L78" t="s">
         <v>226</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M78" t="s">
+        <v>226</v>
+      </c>
+      <c r="N78" t="n">
         <v>23.0</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>0.0</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>27</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26532,16 +26767,19 @@
       <c r="L79" t="s">
         <v>226</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" t="s">
+        <v>226</v>
+      </c>
+      <c r="N79" t="n">
         <v>0.0</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>23.0</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>27</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26582,16 +26820,19 @@
       <c r="L80" t="s">
         <v>226</v>
       </c>
-      <c r="M80" t="n">
+      <c r="M80" t="s">
+        <v>226</v>
+      </c>
+      <c r="N80" t="n">
         <v>23.0</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>0.0</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>27</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26632,16 +26873,19 @@
       <c r="L81" t="s">
         <v>226</v>
       </c>
-      <c r="M81" t="n">
+      <c r="M81" t="s">
+        <v>226</v>
+      </c>
+      <c r="N81" t="n">
         <v>23.0</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>0.0</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>27</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26682,16 +26926,19 @@
       <c r="L82" t="s">
         <v>226</v>
       </c>
-      <c r="M82" t="n">
-        <v>0.0</v>
+      <c r="M82" t="s">
+        <v>226</v>
       </c>
       <c r="N82" t="n">
         <v>0.0</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P82" t="s">
         <v>27</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26732,16 +26979,19 @@
       <c r="L83" t="s">
         <v>226</v>
       </c>
-      <c r="M83" t="n">
-        <v>0.0</v>
+      <c r="M83" t="s">
+        <v>226</v>
       </c>
       <c r="N83" t="n">
         <v>0.0</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" t="s">
         <v>27</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26782,16 +27032,19 @@
       <c r="L84" t="s">
         <v>226</v>
       </c>
-      <c r="M84" t="n">
-        <v>0.0</v>
+      <c r="M84" t="s">
+        <v>226</v>
       </c>
       <c r="N84" t="n">
         <v>0.0</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P84" t="s">
         <v>27</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26832,16 +27085,19 @@
       <c r="L85" t="s">
         <v>226</v>
       </c>
-      <c r="M85" t="n">
-        <v>0.0</v>
+      <c r="M85" t="s">
+        <v>226</v>
       </c>
       <c r="N85" t="n">
         <v>0.0</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P85" t="s">
         <v>27</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26882,16 +27138,19 @@
       <c r="L86" t="s">
         <v>226</v>
       </c>
-      <c r="M86" t="n">
-        <v>0.0</v>
+      <c r="M86" t="s">
+        <v>226</v>
       </c>
       <c r="N86" t="n">
         <v>0.0</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P86" t="s">
         <v>27</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26932,16 +27191,19 @@
       <c r="L87" t="s">
         <v>226</v>
       </c>
-      <c r="M87" t="n">
-        <v>0.0</v>
+      <c r="M87" t="s">
+        <v>226</v>
       </c>
       <c r="N87" t="n">
         <v>0.0</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P87" t="s">
         <v>27</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26982,16 +27244,19 @@
       <c r="L88" t="s">
         <v>226</v>
       </c>
-      <c r="M88" t="n">
-        <v>0.0</v>
+      <c r="M88" t="s">
+        <v>226</v>
       </c>
       <c r="N88" t="n">
         <v>0.0</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P88" t="s">
         <v>27</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>27</v>
       </c>
     </row>
@@ -27032,16 +27297,19 @@
       <c r="L89" t="s">
         <v>226</v>
       </c>
-      <c r="M89" t="n">
-        <v>0.0</v>
+      <c r="M89" t="s">
+        <v>226</v>
       </c>
       <c r="N89" t="n">
         <v>0.0</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P89" t="s">
         <v>27</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>27</v>
       </c>
     </row>
@@ -27082,16 +27350,19 @@
       <c r="L90" t="s">
         <v>226</v>
       </c>
-      <c r="M90" t="n">
-        <v>0.0</v>
+      <c r="M90" t="s">
+        <v>226</v>
       </c>
       <c r="N90" t="n">
         <v>0.0</v>
       </c>
-      <c r="O90" t="s">
+      <c r="O90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P90" t="s">
         <v>27</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>27</v>
       </c>
     </row>
